--- a/Другое/Дз Адольфа.xlsx
+++ b/Другое/Дз Адольфа.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve">Таблица 1. </t>
   </si>
@@ -138,12 +138,31 @@
   <si>
     <t>∑(Xi-Xср )(Yi-Yср )=</t>
   </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tt = </t>
+    </r>
+  </si>
+  <si>
+    <t>Следовательно: присутствует прямая сильная корреляционная взаимосвязь</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +199,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,11 +228,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,6 +246,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,24 +657,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -731,20 +761,20 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -807,24 +837,24 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -836,7 +866,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
@@ -876,10 +906,10 @@
         <f>(B19-$H$20)*(D19-$H$21)</f>
         <v>135.67999999999998</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f>COUNT(A19:A23)</f>
         <v>5</v>
       </c>
@@ -908,10 +938,10 @@
         <f t="shared" ref="F20:F23" si="2">(B20-$H$20)*(D20-$H$21)</f>
         <v>11.879999999999983</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f>H22/H19</f>
         <v>47.8</v>
       </c>
@@ -940,10 +970,10 @@
         <f t="shared" si="2"/>
         <v>67.079999999999984</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f>H23/H19</f>
         <v>50.6</v>
       </c>
@@ -972,10 +1002,10 @@
         <f t="shared" si="2"/>
         <v>492.88000000000005</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <f>SUM(B19:B23)</f>
         <v>239</v>
       </c>
@@ -1004,29 +1034,29 @@
         <f t="shared" si="2"/>
         <v>3.080000000000001</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f>SUM(D19:D23)</f>
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f>SUM(C19:C23)</f>
         <v>640.80000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f>SUM(E19:E23)</f>
         <v>827.2</v>
       </c>
@@ -1035,7 +1065,7 @@
       <c r="G26" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f>SUM(F19:F23)</f>
         <v>710.6</v>
       </c>
@@ -1047,17 +1077,34 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2">
+        <f>CORREL(B19:B23,D19:D23)</f>
+        <v>0.97601993637178408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
+      <c r="A97" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>

--- a/Другое/Дз Адольфа.xlsx
+++ b/Другое/Дз Адольфа.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t xml:space="preserve">Таблица 1. </t>
   </si>
@@ -157,12 +157,98 @@
   <si>
     <t>Следовательно: присутствует прямая сильная корреляционная взаимосвязь</t>
   </si>
+  <si>
+    <t xml:space="preserve">100% надежность: </t>
+  </si>
+  <si>
+    <t>Рестест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Совпадает ли рассеяние корреляционного поля с полученным значением коэффициента корреляции? О чем это говорит? - коэф. надежности не максимальный
+Имеется ли смещение корреляционного поля относительно линии 100-процентной надежности? Вверх или вниз? О чем это говорит? - Смещение вверх говорит о том, что ретест был пройден лучше чем тест
+Какие факторы влияют на надежность данного теста? Что нужно сделать, чтобы ее повысить? Разный уровень физ.подготовки у испытуемых, что бы повысисть надежность теста -  время отдыха следует рассчитывать индивидуально для каждого испытуемого, исходя из пола, возраста, физ.подготовки. 
+</t>
+  </si>
+  <si>
+    <t>Таблица 4. для расчета рангового коэффициента корреляции Спирмена</t>
+  </si>
+  <si>
+    <t>Исходные данные</t>
+  </si>
+  <si>
+    <t>X тест</t>
+  </si>
+  <si>
+    <t>Y ретест</t>
+  </si>
+  <si>
+    <t>Ранги</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>Разность рангов</t>
+  </si>
+  <si>
+    <t>Квадрат разности рангов</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Информативность теста хорошая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговое заключение:
+информативность теста проба Штанге предлагаемого с целью определения скрытой коронарной недостаточности, а также для определения устойчивости организма к гипоксии для испытуемых можно считать хорошим. 
+</t>
+  </si>
+  <si>
+    <t>1. Расчет шкалы оценок ГЦОЛИФК (модифицированная формула)</t>
+  </si>
+  <si>
+    <t>№ исп</t>
+  </si>
+  <si>
+    <t>Результат теста Х</t>
+  </si>
+  <si>
+    <t>Очки</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,16 +293,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -224,35 +324,610 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -270,110 +945,170 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 44 42 75 52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$13:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35 46 40 68 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="33900032"/>
+        <c:axId val="33901568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="33900032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="33901568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33901568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="33900032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -420,7 +1155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -455,7 +1190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -632,23 +1367,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57:G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -656,452 +1392,965 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:45" ht="15.75" thickTop="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:45">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:45">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:45">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:45">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:45" ht="15.75" thickBot="1">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="19">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="1:45" ht="15.75" thickTop="1">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="L10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="37">
+        <v>10</v>
+      </c>
+      <c r="N10" s="37">
+        <v>20</v>
+      </c>
+      <c r="O10" s="37">
+        <v>30</v>
+      </c>
+      <c r="P10" s="40">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="15.75" thickBot="1">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="L11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="31">
+        <v>10</v>
+      </c>
+      <c r="N11" s="31">
+        <v>20</v>
+      </c>
+      <c r="O11" s="31">
+        <v>30</v>
+      </c>
+      <c r="P11" s="31">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" thickTop="1">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:45">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>35</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>46</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>68</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="17">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:45" ht="15.75" thickBot="1">
+      <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="19">
         <v>40</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="19">
         <v>44</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="19">
         <v>42</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="19">
         <v>75</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="20">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>10</v>
+      </c>
+      <c r="AO14">
+        <v>20</v>
+      </c>
+      <c r="AP14">
+        <v>30</v>
+      </c>
+      <c r="AQ14">
+        <v>40</v>
+      </c>
+      <c r="AR14">
+        <v>50</v>
+      </c>
+      <c r="AS14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="16" spans="1:45" ht="15.75" thickTop="1">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:8">
+      <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <f>B13</f>
         <v>35</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f>(B19-$H$20)^2</f>
         <v>163.83999999999992</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <f>B14</f>
         <v>40</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <f>(D19-$H$21)^2</f>
         <v>112.36000000000003</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <f>(B19-$H$20)*(D19-$H$21)</f>
         <v>135.67999999999998</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="23">
         <f>COUNT(A19:A23)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:8">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <f>C13</f>
         <v>46</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f t="shared" ref="C20:C23" si="0">(B20-$H$20)^2</f>
         <v>3.2399999999999896</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <f>C14</f>
         <v>44</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <f t="shared" ref="E20:E23" si="1">(D20-$H$21)^2</f>
         <v>43.560000000000016</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <f t="shared" ref="F20:F23" si="2">(B20-$H$20)*(D20-$H$21)</f>
         <v>11.879999999999983</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="23">
         <f>H22/H19</f>
         <v>47.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:8">
+      <c r="A21" s="16">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <f>D13</f>
         <v>40</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>60.839999999999954</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <f>D14</f>
         <v>42</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>73.960000000000022</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
         <v>67.079999999999984</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="23">
         <f>H23/H19</f>
         <v>50.6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:8">
+      <c r="A22" s="16">
         <v>4</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <f>E13</f>
         <v>68</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>408.04000000000013</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <f>E14</f>
         <v>75</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>595.3599999999999</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <f t="shared" si="2"/>
         <v>492.88000000000005</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="23">
         <f>SUM(B19:B23)</f>
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:8">
+      <c r="A23" s="16">
         <v>5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <f>F13</f>
         <v>50</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>4.8400000000000123</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <f>F14</f>
         <v>52</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>1.959999999999996</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <f t="shared" si="2"/>
         <v>3.080000000000001</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="23">
         <f>SUM(D19:D23)</f>
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="G24" s="6" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="24"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="23">
         <f>SUM(C19:C23)</f>
         <v>640.80000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="6" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="23">
         <f>SUM(E19:E23)</f>
         <v>827.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="23">
         <f>SUM(F19:F23)</f>
         <v>710.6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="9" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="25"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="30">
         <f>CORREL(B19:B23,D19:D23)</f>
         <v>0.97601993637178408</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickTop="1">
+      <c r="A31" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="40" spans="1:8">
+      <c r="A40" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+    </row>
+    <row r="41" spans="1:8" ht="39" customHeight="1">
+      <c r="A41" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="61">
+        <v>1</v>
+      </c>
+      <c r="B43" s="61">
+        <f>B$13</f>
+        <v>35</v>
+      </c>
+      <c r="C43" s="61">
+        <f>B14</f>
+        <v>40</v>
+      </c>
+      <c r="D43" s="61">
+        <f>RANK(B43,$B$43:$B$47)</f>
+        <v>5</v>
+      </c>
+      <c r="E43" s="61">
+        <f>RANK(C43,$C$43:$C$47)</f>
+        <v>5</v>
+      </c>
+      <c r="F43" s="61">
+        <v>0</v>
+      </c>
+      <c r="G43" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="61">
+        <f>C13</f>
+        <v>46</v>
+      </c>
+      <c r="C44" s="5">
+        <f>C14</f>
+        <v>44</v>
+      </c>
+      <c r="D44" s="61">
+        <f t="shared" ref="D44:D47" si="3">RANK(B44,$B$43:$B$47)</f>
+        <v>3</v>
+      </c>
+      <c r="E44" s="61">
+        <f t="shared" ref="E44:E47" si="4">RANK(C44,$C$43:$C$47)</f>
+        <v>3</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="61">
+        <f>D13</f>
+        <v>40</v>
+      </c>
+      <c r="C45" s="5">
+        <f>D14</f>
+        <v>42</v>
+      </c>
+      <c r="D45" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E45" s="61">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5">
+        <v>4</v>
+      </c>
+      <c r="B46" s="61">
+        <f>E13</f>
+        <v>68</v>
+      </c>
+      <c r="C46" s="5">
+        <f>E14</f>
+        <v>75</v>
+      </c>
+      <c r="D46" s="61">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5">
+        <f>F13</f>
+        <v>50</v>
+      </c>
+      <c r="C47" s="5">
+        <f>F14</f>
+        <v>52</v>
+      </c>
+      <c r="D47" s="61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="G48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="50" spans="1:8">
+      <c r="A50" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="65"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="66"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="67"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="66"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="66"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="67"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A54" s="68"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="70"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="57" spans="1:8">
+      <c r="A57" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="37">
+        <v>1</v>
+      </c>
+      <c r="C58" s="37">
+        <v>2</v>
+      </c>
+      <c r="D58" s="37">
+        <v>3</v>
+      </c>
+      <c r="E58" s="37">
+        <v>4</v>
+      </c>
+      <c r="F58" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="37">
+        <v>35</v>
+      </c>
+      <c r="C59" s="37">
+        <v>46</v>
+      </c>
+      <c r="D59" s="37">
+        <v>40</v>
+      </c>
+      <c r="E59" s="37">
+        <v>68</v>
+      </c>
+      <c r="F59" s="73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A60" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="75">
+        <f>((B59-MIN($B$59:$F$59)) /( MAX($B$59:$F$59) - MIN($B$59:$F$59)))*100</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="75">
+        <f t="shared" ref="C60:F60" si="5">((C59-MIN($B$59:$F$59)) /( MAX($B$59:$F$59) - MIN($B$59:$F$59)))*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="D60" s="75">
+        <f t="shared" si="5"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="E60" s="75">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F60" s="76">
+        <f t="shared" si="5"/>
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18.75">
+      <c r="A97" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="17">
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="A50:H54"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="A31:H38"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
@@ -1115,56 +2364,8 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="1026" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="1026" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Equation.3" shapeId="1025" r:id="rId4"/>
+    <oleObject progId="Equation.3" shapeId="1026" r:id="rId5"/>
   </oleObjects>
 </worksheet>
 </file>
--- a/Другое/Дз Адольфа.xlsx
+++ b/Другое/Дз Адольфа.xlsx
@@ -760,12 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -778,21 +772,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -807,127 +786,148 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1032,25 +1032,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="33900032"/>
-        <c:axId val="33901568"/>
+        <c:axId val="120081024"/>
+        <c:axId val="120086912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33900032"/>
+        <c:axId val="120081024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33901568"/>
+        <c:crossAx val="120086912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33901568"/>
+        <c:axId val="120086912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1058,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33900032"/>
+        <c:crossAx val="120081024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1071,7 +1071,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1367,7 +1367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57:G60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1393,232 +1393,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15.75" thickTop="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="16">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="16">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:45">
-      <c r="A6" s="16">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="16">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="15.75" thickBot="1">
-      <c r="A8" s="18">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="12">
         <v>25</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1">
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
     </row>
     <row r="10" spans="1:45" ht="15.75" thickTop="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="L10" s="38" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="L10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="24">
         <v>10</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="24">
         <v>20</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="24">
         <v>30</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="27">
         <v>40</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="26">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="15.75" thickBot="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="17"/>
-      <c r="L11" s="36" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+      <c r="L11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="21">
         <v>10</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="21">
         <v>20</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="21">
         <v>30</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="21">
         <v>40</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15.75" thickTop="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:45">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>35</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>46</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>40</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>68</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="15.75" thickBot="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="12">
         <v>40</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="12">
         <v>44</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="12">
         <v>42</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="12">
         <v>75</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="13">
         <v>52</v>
       </c>
       <c r="AL14">
@@ -1648,690 +1648,690 @@
     </row>
     <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="16" spans="1:45" ht="15.75" thickTop="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="17"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="20.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="16">
+      <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <f>B13</f>
         <v>35</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <f>(B19-$H$20)^2</f>
         <v>163.83999999999992</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <f>B14</f>
         <v>40</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <f>(D19-$H$21)^2</f>
         <v>112.36000000000003</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <f>(B19-$H$20)*(D19-$H$21)</f>
         <v>135.67999999999998</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="16">
         <f>COUNT(A19:A23)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="16">
+      <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <f>C13</f>
         <v>46</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <f t="shared" ref="C20:C23" si="0">(B20-$H$20)^2</f>
         <v>3.2399999999999896</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <f>C14</f>
         <v>44</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <f t="shared" ref="E20:E23" si="1">(D20-$H$21)^2</f>
         <v>43.560000000000016</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <f t="shared" ref="F20:F23" si="2">(B20-$H$20)*(D20-$H$21)</f>
         <v>11.879999999999983</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="16">
         <f>H22/H19</f>
         <v>47.8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="16">
+      <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <f>D13</f>
         <v>40</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>60.839999999999954</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <f>D14</f>
         <v>42</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>73.960000000000022</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <f t="shared" si="2"/>
         <v>67.079999999999984</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="16">
         <f>H23/H19</f>
         <v>50.6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="16">
+      <c r="A22" s="9">
         <v>4</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <f>E13</f>
         <v>68</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>408.04000000000013</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <f>E14</f>
         <v>75</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>595.3599999999999</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <f t="shared" si="2"/>
         <v>492.88000000000005</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="16">
         <f>SUM(B19:B23)</f>
         <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="16">
+      <c r="A23" s="9">
         <v>5</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <f>F13</f>
         <v>50</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>4.8400000000000123</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <f>F14</f>
         <v>52</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>1.959999999999996</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <f t="shared" si="2"/>
         <v>3.080000000000001</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="16">
         <f>SUM(D19:D23)</f>
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="24"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="9" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="16">
         <f>SUM(C19:C23)</f>
         <v>640.80000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="9" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="16">
         <f>SUM(E19:E23)</f>
         <v>827.2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="16">
         <f>SUM(F19:F23)</f>
         <v>710.6</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="25"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="29" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="20">
         <f>CORREL(B19:B23,D19:D23)</f>
         <v>0.97601993637178408</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickTop="1"/>
     <row r="30" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:8" ht="15" customHeight="1" thickTop="1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="65"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="40" spans="1:8">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="39" customHeight="1">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="51" t="s">
+      <c r="E41" s="47"/>
+      <c r="F41" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="52" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="61">
+      <c r="A43" s="29">
         <v>1</v>
       </c>
-      <c r="B43" s="61">
+      <c r="B43" s="29">
         <f>B$13</f>
         <v>35</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="29">
         <f>B14</f>
         <v>40</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="29">
         <f>RANK(B43,$B$43:$B$47)</f>
         <v>5</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="29">
         <f>RANK(C43,$C$43:$C$47)</f>
         <v>5</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="29">
         <v>0</v>
       </c>
-      <c r="G43" s="61">
+      <c r="G43" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>2</v>
       </c>
-      <c r="B44" s="61">
+      <c r="B44" s="29">
         <f>C13</f>
         <v>46</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <f>C14</f>
         <v>44</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="29">
         <f t="shared" ref="D44:D47" si="3">RANK(B44,$B$43:$B$47)</f>
         <v>3</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="29">
         <f t="shared" ref="E44:E47" si="4">RANK(C44,$C$43:$C$47)</f>
         <v>3</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>3</v>
       </c>
-      <c r="B45" s="61">
+      <c r="B45" s="29">
         <f>D13</f>
         <v>40</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <f>D14</f>
         <v>42</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="29">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="29">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>4</v>
       </c>
-      <c r="B46" s="61">
+      <c r="B46" s="29">
         <f>E13</f>
         <v>68</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <f>E14</f>
         <v>75</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="29">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="29">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>5</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <f>F13</f>
         <v>50</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <f>F14</f>
         <v>52</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="29">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="29">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="62" t="s">
+      <c r="H47" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="50" spans="1:8">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="65"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="66"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="67"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="66"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="67"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="66"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="67"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A54" s="68"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="45"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="57" spans="1:8">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="65"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="72" t="s">
+      <c r="A58" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="24">
         <v>1</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="24">
         <v>2</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="24">
         <v>3</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="24">
         <v>4</v>
       </c>
-      <c r="F58" s="73">
+      <c r="F58" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="24">
         <v>35</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="24">
         <v>46</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D59" s="24">
         <v>40</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="24">
         <v>68</v>
       </c>
-      <c r="F59" s="73">
+      <c r="F59" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A60" s="74" t="s">
+      <c r="A60" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="75">
+      <c r="B60" s="34">
         <f>((B59-MIN($B$59:$F$59)) /( MAX($B$59:$F$59) - MIN($B$59:$F$59)))*100</f>
         <v>0</v>
       </c>
-      <c r="C60" s="75">
+      <c r="C60" s="34">
         <f t="shared" ref="C60:F60" si="5">((C59-MIN($B$59:$F$59)) /( MAX($B$59:$F$59) - MIN($B$59:$F$59)))*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="D60" s="75">
+      <c r="D60" s="34">
         <f t="shared" si="5"/>
         <v>15.151515151515152</v>
       </c>
-      <c r="E60" s="75">
+      <c r="E60" s="34">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="F60" s="76">
+      <c r="F60" s="35">
         <f t="shared" si="5"/>
         <v>45.454545454545453</v>
       </c>
@@ -2341,6 +2341,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="A31:H38"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="A50:H54"/>
     <mergeCell ref="A57:F57"/>
@@ -2348,16 +2358,6 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="A31:H38"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
